--- a/students.xlsx
+++ b/students.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,12 +471,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lê Thành Biên</t>
+          <t>Lê Hải Biên</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08/10/2005</t>
+          <t>05/01/2005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Toán Tin</t>
+          <t>Toán TIn</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -501,49 +501,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>HTTTQL</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>20237467</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Hoàng Bình Nguyn</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>04/05/2005</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Nam</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>K68</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Toán Tin</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>MI2_01</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>HTTTQL</t>
+          <t>MI2</t>
         </is>
       </c>
     </row>

--- a/students.xlsx
+++ b/students.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,6 +505,48 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>20237467</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Hoàng Bình Nguyên</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>04/05/2005</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>K68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Toán Tin</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>MI2_01</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>MI2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
